--- a/data/trans_camb/P32B-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P32B-Clase-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2225432878292137</v>
+        <v>0.5741850695962124</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0449182908001539</v>
+        <v>0.03727584701804185</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4054291067757999</v>
+        <v>0.4125544124787562</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.827406897319374</v>
+        <v>-3.128384626663359</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.4849676876154</v>
+        <v>-2.446918457737344</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.279410668581178</v>
+        <v>-1.929894727618838</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.1318513303229049</v>
+        <v>-0.1851833697833818</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.2591514478577298</v>
+        <v>-0.2628266995131852</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.09507316546506889</v>
+        <v>0.1215915824900791</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.851621837587092</v>
+        <v>5.073417854625816</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.263188823670149</v>
+        <v>4.773795138850052</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.038162073298043</v>
+        <v>5.608339379466252</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.212041113849341</v>
+        <v>1.206980181979111</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.088880102468136</v>
+        <v>2.028105390993439</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.961069557522178</v>
+        <v>2.961854003493959</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.955452093756829</v>
+        <v>3.081876967296155</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.772626882385108</v>
+        <v>3.800976960056458</v>
       </c>
     </row>
     <row r="7">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4452577362845676</v>
+        <v>-0.1944922898175771</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6218366901800998</v>
+        <v>-0.6970341021966744</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5110736001265127</v>
+        <v>-0.4599781002668312</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.4759568667576891</v>
+        <v>-0.4111643512217827</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6066869476846489</v>
+        <v>-0.5043663731237411</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3370301944081692</v>
+        <v>-0.452162767716671</v>
       </c>
     </row>
     <row r="9">
@@ -815,13 +815,13 @@
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>12.9170393254603</v>
+        <v>12.61181618262774</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>10.32089653739162</v>
+        <v>13.23507446742581</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>15.16161351712526</v>
+        <v>13.3211261291878</v>
       </c>
     </row>
     <row r="10">
@@ -842,7 +842,7 @@
         <v>1.18527098352633</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.2908386289694171</v>
+        <v>0.290838628969417</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.1811775935835132</v>
@@ -860,7 +860,7 @@
         <v>0.3547492498161428</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.7568436805122774</v>
+        <v>0.7568436805122771</v>
       </c>
     </row>
     <row r="11">
@@ -871,31 +871,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.360968383009757</v>
+        <v>-1.344593741536356</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.2020958957193431</v>
+        <v>-0.2851371478494494</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.9231519659872759</v>
+        <v>-1.28174243299957</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.021211052423763</v>
+        <v>-2.024382055809879</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.413186616317652</v>
+        <v>-3.543393127601623</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.49176848116868</v>
+        <v>-1.51872867086505</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.358025625669862</v>
+        <v>-1.189439950739845</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.089551808709739</v>
+        <v>-1.070693030637577</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.6759824076653342</v>
+        <v>-0.6308246270850794</v>
       </c>
     </row>
     <row r="12">
@@ -906,31 +906,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7812306090550363</v>
+        <v>0.7957555363496506</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.335966532038786</v>
+        <v>3.358037189442217</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.715597138541677</v>
+        <v>1.77104304801882</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.404799074916408</v>
+        <v>3.144930195225903</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5895972266165218</v>
+        <v>1.001968015705915</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.53387167432571</v>
+        <v>4.214128664453231</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.301909360180145</v>
+        <v>1.301788710089217</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.696606089159526</v>
+        <v>1.617959884874843</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.145487839093343</v>
+        <v>2.160751960213256</v>
       </c>
     </row>
     <row r="13">
@@ -947,7 +947,7 @@
         <v>2.728960020960189</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.6696249229413299</v>
+        <v>0.6696249229413298</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1354365286343432</v>
@@ -965,7 +965,7 @@
         <v>0.4418037766855179</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.942571116314383</v>
+        <v>0.9425711163143827</v>
       </c>
     </row>
     <row r="14">
@@ -984,7 +984,7 @@
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="inlineStr"/>
       <c r="K14" s="6" t="n">
-        <v>-0.5855471567840413</v>
+        <v>-0.6183767071405244</v>
       </c>
     </row>
     <row r="15">
@@ -1003,7 +1003,7 @@
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="inlineStr"/>
       <c r="K15" s="6" t="n">
-        <v>8.979356886736236</v>
+        <v>7.405500644361781</v>
       </c>
     </row>
     <row r="16">
@@ -1024,7 +1024,7 @@
         <v>1.319835270007844</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.230762064645703</v>
+        <v>2.230762064645702</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.388914634292109</v>
+        <v>1.396054889197518</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08413692887889672</v>
+        <v>0.02651452487871065</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2065370587621833</v>
+        <v>0.2959609010623442</v>
       </c>
       <c r="F17" s="5" t="inlineStr"/>
       <c r="G17" s="5" t="n">
@@ -1067,13 +1067,13 @@
       </c>
       <c r="H17" s="5" t="inlineStr"/>
       <c r="I17" s="5" t="n">
-        <v>1.26903716596494</v>
+        <v>1.170761781008958</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4077380669621821</v>
+        <v>0.3250592138520935</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1181469728937854</v>
+        <v>0.1481142348599796</v>
       </c>
     </row>
     <row r="18">
@@ -1084,27 +1084,27 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.070234912325108</v>
+        <v>6.287469076083959</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.743465478804321</v>
+        <v>3.433961695701038</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.162066082492775</v>
+        <v>5.732148644299087</v>
       </c>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="n">
-        <v>11.95728000726193</v>
+        <v>11.87821241778922</v>
       </c>
       <c r="H18" s="5" t="inlineStr"/>
       <c r="I18" s="5" t="n">
-        <v>5.456531059782654</v>
+        <v>5.369686198744055</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.500232872147092</v>
+        <v>3.670027238162748</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.121147414182398</v>
+        <v>4.826451084399971</v>
       </c>
     </row>
     <row r="19">
@@ -1121,7 +1121,7 @@
         <v>2.566064891877648</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>4.337117173862017</v>
+        <v>4.337117173862016</v>
       </c>
       <c r="F19" s="6" t="inlineStr"/>
       <c r="G19" s="6" t="inlineStr">
@@ -1148,20 +1148,20 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.6631126808605898</v>
+        <v>0.4457143927913162</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5702895017085632</v>
+        <v>-0.5759718228616637</v>
       </c>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>0.4531590357032147</v>
+        <v>0.37114182524887</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3449395243931955</v>
+        <v>-0.4889462296030324</v>
       </c>
       <c r="K20" s="6" t="inlineStr"/>
     </row>
@@ -1209,7 +1209,7 @@
         <v>-0.3290347362803465</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.2149500930154088</v>
+        <v>0.2149500930154081</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.231397693852533</v>
@@ -1229,31 +1229,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4280710386038459</v>
+        <v>0.4748692468760081</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.4747253224465274</v>
+        <v>-0.5790151097421186</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.8884093063297929</v>
+        <v>-0.9398500277163937</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.25833363375814</v>
+        <v>-3.832016763364541</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.717487308027848</v>
+        <v>-2.823395109916419</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.098826431731385</v>
+        <v>-2.054130016773885</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.03785594729430759</v>
+        <v>-0.04608206469862694</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.7215411790910777</v>
+        <v>-0.639966108001744</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.8323404026494434</v>
+        <v>-0.6724949653376228</v>
       </c>
     </row>
     <row r="24">
@@ -1264,31 +1264,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.814682711319223</v>
+        <v>3.848065501543622</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.540146504308564</v>
+        <v>2.626444445351857</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.23757582196605</v>
+        <v>2.058134088772093</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4020795066155566</v>
+        <v>0.3457264979626711</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.594104491337114</v>
+        <v>1.618513360782793</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.420772502910206</v>
+        <v>3.581561412481352</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.871819884907045</v>
+        <v>2.668787287754959</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.831488810340524</v>
+        <v>1.906491643727483</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.895626286797773</v>
+        <v>1.961067013075144</v>
       </c>
     </row>
     <row r="25">
@@ -1314,7 +1314,7 @@
         <v>-0.205683440110289</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1343678028746677</v>
+        <v>0.1343678028746673</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.8957775766292803</v>
@@ -1334,27 +1334,25 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.08318408070951544</v>
+        <v>0.002778365475469356</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3957312264326742</v>
+        <v>-0.381188623783534</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5177672995599014</v>
+        <v>-0.5564332803101094</v>
       </c>
       <c r="F26" s="6" t="inlineStr"/>
-      <c r="G26" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="n">
-        <v>-0.1205842548709921</v>
+        <v>-0.1415336432219121</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4226993286300301</v>
+        <v>-0.4211735533995036</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.4473747302032942</v>
+        <v>-0.4013726157819064</v>
       </c>
     </row>
     <row r="27">
@@ -1365,25 +1363,25 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5.471131272039019</v>
+        <v>5.223484830005816</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3.669465347192426</v>
+        <v>3.739605075817699</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.309278104694976</v>
+        <v>2.835948468658144</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>3.535888086304343</v>
+        <v>3.019952316980691</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.081422374085626</v>
+        <v>1.996005616141548</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.138257958140695</v>
+        <v>2.345509361381725</v>
       </c>
     </row>
     <row r="28">
@@ -1433,31 +1431,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.2720513039142757</v>
+        <v>-0.3083519150204789</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.120033650878483</v>
+        <v>0.01491458823190471</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.8359129278253928</v>
+        <v>0.7503378073748053</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-4.021495339490409</v>
+        <v>-3.68085997582274</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.944251148430224</v>
+        <v>-4.831958116453597</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.86479249268559</v>
+        <v>-2.69015110710092</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.8678354786358264</v>
+        <v>-0.9643413647779032</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.203093413350234</v>
+        <v>-1.052373036394988</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1009380647064241</v>
+        <v>0.2350255450912678</v>
       </c>
     </row>
     <row r="30">
@@ -1468,31 +1466,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.738331636944964</v>
+        <v>2.758482229009517</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.32288182230823</v>
+        <v>3.649048541367814</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.836887667516391</v>
+        <v>5.74030021913586</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.7799320541653</v>
+        <v>1.680727012412431</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.562995437100611</v>
+        <v>2.585618294085322</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.818432530842695</v>
+        <v>1.885698861771107</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.578408824484542</v>
+        <v>1.623122037412518</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.902126514707488</v>
+        <v>3.877839507368282</v>
       </c>
     </row>
     <row r="31">
@@ -1527,7 +1525,7 @@
         <v>0.3755928945138333</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>2.120158701931618</v>
+        <v>2.120158701931619</v>
       </c>
     </row>
     <row r="32">
@@ -1542,17 +1540,15 @@
       <c r="E32" s="6" t="inlineStr"/>
       <c r="F32" s="6" t="inlineStr"/>
       <c r="G32" s="6" t="inlineStr"/>
-      <c r="H32" s="6" t="n">
-        <v>-0.8750578614526306</v>
-      </c>
+      <c r="H32" s="6" t="inlineStr"/>
       <c r="I32" s="6" t="n">
-        <v>-0.7088156835490655</v>
+        <v>-0.7296349943404826</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.8253584287267365</v>
+        <v>-0.7633850725915977</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2202292123359034</v>
+        <v>-0.1735674574519436</v>
       </c>
     </row>
     <row r="33">
@@ -1568,12 +1564,14 @@
       <c r="F33" s="6" t="inlineStr"/>
       <c r="G33" s="6" t="inlineStr"/>
       <c r="H33" s="6" t="inlineStr"/>
-      <c r="I33" s="6" t="inlineStr"/>
+      <c r="I33" s="6" t="n">
+        <v>7.893524609839322</v>
+      </c>
       <c r="J33" s="6" t="n">
-        <v>6.549626593216155</v>
+        <v>6.774579587875119</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>14.53874655357146</v>
+        <v>14.35315933284796</v>
       </c>
     </row>
     <row r="34">
@@ -1612,7 +1610,7 @@
         <v>1.244940079019632</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>0.4671798542464825</v>
+        <v>0.4671798542464826</v>
       </c>
     </row>
     <row r="35">
@@ -1623,31 +1621,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.6758151532431841</v>
+        <v>1.115543142420732</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.9323629929181612</v>
+        <v>-1.117431705263616</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-4.546956617600125</v>
+        <v>-3.741735554139538</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.02604353749801</v>
+        <v>-1.04524862893904</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.5101003178197888</v>
+        <v>-0.5604054312176163</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.9207508802834573</v>
+        <v>-0.9165356848431404</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.2892181840569008</v>
+        <v>-0.01971845860705836</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.2524671857078666</v>
+        <v>-0.1741334722802231</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-0.869745836918567</v>
+        <v>-0.8739412893149154</v>
       </c>
     </row>
     <row r="36">
@@ -1658,31 +1656,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>8.509521393013195</v>
+        <v>8.650233055861612</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>4.598355443470952</v>
+        <v>4.392806247189139</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.506077118073379</v>
+        <v>1.493428389611111</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.983337935965178</v>
+        <v>3.046314763305189</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>7.336608107483523</v>
+        <v>7.581606408178641</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>3.530070701721697</v>
+        <v>3.413519865915297</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.703339644671843</v>
+        <v>2.75085529413108</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>4.771236996148978</v>
+        <v>4.710805841490409</v>
       </c>
     </row>
     <row r="37">
@@ -1717,7 +1715,7 @@
         <v>2.145209489139973</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.8050175854678864</v>
+        <v>0.8050175854678867</v>
       </c>
     </row>
     <row r="38">
@@ -1734,10 +1732,10 @@
       <c r="G38" s="6" t="inlineStr"/>
       <c r="H38" s="6" t="inlineStr"/>
       <c r="I38" s="6" t="n">
-        <v>-0.3816685720987131</v>
+        <v>-0.3923314649832805</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.8123605286822865</v>
+        <v>-0.6084316988357305</v>
       </c>
       <c r="K38" s="6" t="inlineStr"/>
     </row>
@@ -1785,7 +1783,7 @@
         <v>-0.01353602155556473</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>0.7215280106881607</v>
+        <v>0.7215280106881611</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>1.235233821337905</v>
@@ -1805,31 +1803,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1.30501607638616</v>
+        <v>1.177577495476223</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.5571827978791067</v>
+        <v>0.5515352845779985</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.4618619463751042</v>
+        <v>0.5003365823340221</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.271906360073764</v>
+        <v>-1.264353671525764</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.9502065522743109</v>
+        <v>-0.9530714520794595</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.4765528833116977</v>
+        <v>-0.2799753563995996</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.6368329714597988</v>
+        <v>0.5707502784628268</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.2527826933771348</v>
+        <v>0.2333498096859919</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.4494371352056262</v>
+        <v>0.5201135763970514</v>
       </c>
     </row>
     <row r="42">
@@ -1840,31 +1838,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.102004989558629</v>
+        <v>2.987948933174285</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.121039844768429</v>
+        <v>2.128163684722501</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.305076968912679</v>
+        <v>2.246604424725617</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.4496892398871741</v>
+        <v>0.4350064744281449</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.8460811812840384</v>
+        <v>0.8741167585762445</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.92312284835395</v>
+        <v>2.008557831896055</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.908994014574398</v>
+        <v>1.898949722389555</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.418929368945782</v>
+        <v>1.442566193778235</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>1.897904050174831</v>
+        <v>1.884708961562939</v>
       </c>
     </row>
     <row r="43">
@@ -1881,7 +1879,7 @@
         <v>1.586332079023059</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>1.64448120420296</v>
+        <v>1.644481204202959</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.3406140700974051</v>
@@ -1890,7 +1888,7 @@
         <v>-0.01297620242057585</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.6916872494899313</v>
+        <v>0.6916872494899317</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>1.386931004740785</v>
@@ -1910,31 +1908,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>1.078173880640545</v>
+        <v>0.9398368050708928</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.4332129291563133</v>
+        <v>0.3704587925356205</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.3445088219191405</v>
+        <v>0.4174010748006053</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.8027689486551834</v>
+        <v>-0.7761059280132675</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.6056055649303588</v>
+        <v>-0.608759810072762</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.3913157861744592</v>
+        <v>-0.2560083206048525</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4802896482283504</v>
+        <v>0.4595075542782104</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.1570010140232684</v>
+        <v>0.1796668786495552</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.3224495151163185</v>
+        <v>0.3785178790025753</v>
       </c>
     </row>
     <row r="45">
@@ -1945,31 +1943,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>5.644843432458766</v>
+        <v>5.304600869639075</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>3.807744107300132</v>
+        <v>3.644476838834738</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>3.777213631467904</v>
+        <v>3.844608300944226</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.9107211182006507</v>
+        <v>1.116301135213467</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.64376768554328</v>
+        <v>1.763688705586612</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>3.26015523744485</v>
+        <v>3.422642419550384</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>2.864944550209605</v>
+        <v>2.921538193432871</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>2.029745407951491</v>
+        <v>2.308669873310973</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>2.745949003749834</v>
+        <v>2.943820028120833</v>
       </c>
     </row>
     <row r="46">
